--- a/input_test/ele_profiles_test.xlsx
+++ b/input_test/ele_profiles_test.xlsx
@@ -1,19 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mattia\desktop\GIT\LoBi\bills_test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mattia\desktop\GIT\LoBi\input_test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAC97FB2-A240-4DA6-AEB5-E236D050168E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAB8D31D-2FB5-4D25-84C7-72721071AA70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="2610" windowWidth="26865" windowHeight="14925" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="2490" windowWidth="21840" windowHeight="13740" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="1" sheetId="1" r:id="rId1"/>
+    <sheet name="2" sheetId="2" r:id="rId2"/>
+    <sheet name="3" sheetId="3" r:id="rId3"/>
+    <sheet name="4" sheetId="4" r:id="rId4"/>
+    <sheet name="5" sheetId="5" r:id="rId5"/>
+    <sheet name="6" sheetId="6" r:id="rId6"/>
+    <sheet name="7" sheetId="7" r:id="rId7"/>
+    <sheet name="8" sheetId="8" r:id="rId8"/>
+    <sheet name="9" sheetId="9" r:id="rId9"/>
+    <sheet name="10" sheetId="10" r:id="rId10"/>
+    <sheet name="11" sheetId="11" r:id="rId11"/>
+    <sheet name="12" sheetId="12" r:id="rId12"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="9">
   <si>
     <t>Hour</t>
   </si>
@@ -396,8 +407,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1130,4 +1141,8144 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78CEEDC4-1553-4200-8B70-EEB2008772B3}">
+  <dimension ref="A1:I25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:I25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="C2" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="D2" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="E2" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="F2" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="G2" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="H2" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="I2" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="E3" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="F3" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="G3" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="H3" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="I3" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="F4" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="G4" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="H4" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="I4" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="G5" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="H5" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="I5" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="F6" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="G6" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="H6" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="I6" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>5</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="F7" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="G7" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="H7" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="I7" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>6</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="I8" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>7</v>
+      </c>
+      <c r="B9" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="F9" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="G9" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="I9" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>8</v>
+      </c>
+      <c r="B10" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="C10" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="F10" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="G10" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="H10" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="I10" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>9</v>
+      </c>
+      <c r="B11" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="C11" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="F11" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="G11" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="H11" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="I11" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>10</v>
+      </c>
+      <c r="B12" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="C12" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="F12" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="G12" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="H12" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="I12" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>11</v>
+      </c>
+      <c r="B13" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="C13" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="D13" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="E13" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="F13" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="G13" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="H13" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="I13" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>12</v>
+      </c>
+      <c r="B14" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="C14" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="D14" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>13</v>
+      </c>
+      <c r="B15" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="C15" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="D15" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="F15" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="H15" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="I15" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>14</v>
+      </c>
+      <c r="B16" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="C16" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="D16" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="E16" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="F16" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="G16" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="H16" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="I16" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>15</v>
+      </c>
+      <c r="B17" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="C17" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="D17" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="E17" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="F17" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="G17" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="H17" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="I17" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>16</v>
+      </c>
+      <c r="B18" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="C18" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="D18" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="E18" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="F18" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="G18" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="H18" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="I18" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>17</v>
+      </c>
+      <c r="B19" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="C19" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="D19" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="E19" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="F19" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="G19" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="H19" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="I19" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>18</v>
+      </c>
+      <c r="B20" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="C20" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D20" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="E20" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="F20" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="G20" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="H20" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="I20" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>19</v>
+      </c>
+      <c r="B21" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="C21" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D21" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="E21" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="F21" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="G21" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="H21" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="I21" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>20</v>
+      </c>
+      <c r="B22" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="C22" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="D22" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="F22" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="H22" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="I22" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>21</v>
+      </c>
+      <c r="B23" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="C23" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="D23" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="E23" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="F23" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="G23" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="H23" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="I23" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>22</v>
+      </c>
+      <c r="B24" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="C24" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="D24" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="E24" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="F24" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="G24" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="H24" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="I24" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>23</v>
+      </c>
+      <c r="B25" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="C25" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="D25" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="E25" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="F25" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="G25" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="H25" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="I25" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBA79682-7313-4F5A-A1CC-E0AE578717FE}">
+  <dimension ref="A1:I25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:I25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="C2" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="D2" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="E2" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="F2" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="G2" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="H2" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="I2" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="E3" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="F3" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="G3" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="H3" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="I3" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="F4" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="G4" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="H4" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="I4" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="G5" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="H5" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="I5" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="F6" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="G6" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="H6" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="I6" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>5</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="F7" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="G7" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="H7" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="I7" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>6</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="I8" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>7</v>
+      </c>
+      <c r="B9" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="F9" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="G9" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="I9" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>8</v>
+      </c>
+      <c r="B10" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="C10" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="F10" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="G10" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="H10" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="I10" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>9</v>
+      </c>
+      <c r="B11" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="C11" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="F11" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="G11" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="H11" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="I11" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>10</v>
+      </c>
+      <c r="B12" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="C12" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="F12" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="G12" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="H12" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="I12" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>11</v>
+      </c>
+      <c r="B13" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="C13" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="D13" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="E13" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="F13" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="G13" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="H13" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="I13" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>12</v>
+      </c>
+      <c r="B14" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="C14" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="D14" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>13</v>
+      </c>
+      <c r="B15" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="C15" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="D15" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="F15" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="H15" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="I15" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>14</v>
+      </c>
+      <c r="B16" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="C16" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="D16" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="E16" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="F16" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="G16" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="H16" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="I16" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>15</v>
+      </c>
+      <c r="B17" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="C17" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="D17" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="E17" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="F17" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="G17" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="H17" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="I17" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>16</v>
+      </c>
+      <c r="B18" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="C18" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="D18" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="E18" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="F18" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="G18" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="H18" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="I18" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>17</v>
+      </c>
+      <c r="B19" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="C19" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="D19" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="E19" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="F19" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="G19" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="H19" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="I19" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>18</v>
+      </c>
+      <c r="B20" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="C20" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D20" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="E20" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="F20" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="G20" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="H20" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="I20" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>19</v>
+      </c>
+      <c r="B21" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="C21" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D21" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="E21" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="F21" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="G21" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="H21" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="I21" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>20</v>
+      </c>
+      <c r="B22" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="C22" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="D22" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="F22" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="H22" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="I22" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>21</v>
+      </c>
+      <c r="B23" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="C23" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="D23" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="E23" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="F23" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="G23" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="H23" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="I23" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>22</v>
+      </c>
+      <c r="B24" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="C24" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="D24" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="E24" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="F24" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="G24" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="H24" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="I24" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>23</v>
+      </c>
+      <c r="B25" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="C25" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="D25" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="E25" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="F25" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="G25" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="H25" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="I25" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93B4A697-4844-4049-82F3-64202AF8B0B4}">
+  <dimension ref="A1:I25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P21" sqref="P21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="C2" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="D2" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="E2" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="F2" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="G2" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="H2" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="I2" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="E3" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="F3" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="G3" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="H3" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="I3" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="F4" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="G4" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="H4" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="I4" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="G5" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="H5" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="I5" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="F6" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="G6" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="H6" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="I6" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>5</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="F7" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="G7" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="H7" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="I7" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>6</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="I8" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>7</v>
+      </c>
+      <c r="B9" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="F9" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="G9" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="I9" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>8</v>
+      </c>
+      <c r="B10" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="C10" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="F10" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="G10" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="H10" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="I10" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>9</v>
+      </c>
+      <c r="B11" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="C11" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="F11" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="G11" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="H11" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="I11" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>10</v>
+      </c>
+      <c r="B12" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="C12" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="F12" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="G12" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="H12" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="I12" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>11</v>
+      </c>
+      <c r="B13" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="C13" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="D13" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="E13" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="F13" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="G13" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="H13" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="I13" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>12</v>
+      </c>
+      <c r="B14" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="C14" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="D14" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>13</v>
+      </c>
+      <c r="B15" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="C15" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="D15" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="F15" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="H15" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="I15" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>14</v>
+      </c>
+      <c r="B16" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="C16" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="D16" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="E16" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="F16" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="G16" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="H16" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="I16" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>15</v>
+      </c>
+      <c r="B17" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="C17" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="D17" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="E17" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="F17" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="G17" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="H17" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="I17" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>16</v>
+      </c>
+      <c r="B18" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="C18" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="D18" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="E18" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="F18" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="G18" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="H18" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="I18" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>17</v>
+      </c>
+      <c r="B19" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="C19" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="D19" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="E19" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="F19" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="G19" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="H19" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="I19" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>18</v>
+      </c>
+      <c r="B20" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="C20" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D20" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="E20" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="F20" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="G20" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="H20" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="I20" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>19</v>
+      </c>
+      <c r="B21" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="C21" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D21" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="E21" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="F21" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="G21" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="H21" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="I21" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>20</v>
+      </c>
+      <c r="B22" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="C22" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="D22" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="F22" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="H22" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="I22" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>21</v>
+      </c>
+      <c r="B23" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="C23" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="D23" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="E23" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="F23" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="G23" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="H23" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="I23" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>22</v>
+      </c>
+      <c r="B24" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="C24" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="D24" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="E24" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="F24" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="G24" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="H24" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="I24" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>23</v>
+      </c>
+      <c r="B25" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="C25" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="D25" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="E25" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="F25" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="G25" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="H25" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="I25" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8094E1EC-BF39-4E4E-AFD4-8487D25C8457}">
+  <dimension ref="A1:I25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:I25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="C2" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="D2" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="E2" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="F2" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="G2" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="H2" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="I2" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="E3" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="F3" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="G3" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="H3" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="I3" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="F4" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="G4" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="H4" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="I4" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="G5" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="H5" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="I5" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="F6" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="G6" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="H6" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="I6" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>5</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="F7" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="G7" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="H7" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="I7" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>6</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="I8" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>7</v>
+      </c>
+      <c r="B9" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="F9" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="G9" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="I9" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>8</v>
+      </c>
+      <c r="B10" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="C10" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="F10" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="G10" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="H10" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="I10" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>9</v>
+      </c>
+      <c r="B11" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="C11" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="F11" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="G11" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="H11" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="I11" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>10</v>
+      </c>
+      <c r="B12" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="C12" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="F12" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="G12" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="H12" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="I12" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>11</v>
+      </c>
+      <c r="B13" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="C13" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="D13" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="E13" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="F13" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="G13" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="H13" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="I13" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>12</v>
+      </c>
+      <c r="B14" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="C14" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="D14" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>13</v>
+      </c>
+      <c r="B15" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="C15" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="D15" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="F15" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="H15" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="I15" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>14</v>
+      </c>
+      <c r="B16" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="C16" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="D16" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="E16" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="F16" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="G16" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="H16" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="I16" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>15</v>
+      </c>
+      <c r="B17" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="C17" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="D17" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="E17" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="F17" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="G17" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="H17" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="I17" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>16</v>
+      </c>
+      <c r="B18" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="C18" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="D18" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="E18" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="F18" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="G18" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="H18" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="I18" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>17</v>
+      </c>
+      <c r="B19" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="C19" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="D19" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="E19" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="F19" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="G19" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="H19" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="I19" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>18</v>
+      </c>
+      <c r="B20" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="C20" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D20" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="E20" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="F20" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="G20" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="H20" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="I20" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>19</v>
+      </c>
+      <c r="B21" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="C21" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D21" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="E21" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="F21" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="G21" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="H21" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="I21" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>20</v>
+      </c>
+      <c r="B22" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="C22" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="D22" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="F22" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="H22" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="I22" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>21</v>
+      </c>
+      <c r="B23" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="C23" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="D23" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="E23" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="F23" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="G23" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="H23" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="I23" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>22</v>
+      </c>
+      <c r="B24" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="C24" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="D24" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="E24" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="F24" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="G24" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="H24" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="I24" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>23</v>
+      </c>
+      <c r="B25" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="C25" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="D25" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="E25" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="F25" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="G25" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="H25" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="I25" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E829A93-12BE-4C5A-B052-33AED014EC22}">
+  <dimension ref="A1:I25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:I25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="C2" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="D2" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="E2" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="F2" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="G2" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="H2" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="I2" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="E3" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="F3" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="G3" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="H3" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="I3" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="F4" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="G4" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="H4" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="I4" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="G5" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="H5" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="I5" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="F6" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="G6" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="H6" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="I6" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>5</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="F7" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="G7" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="H7" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="I7" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>6</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="I8" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>7</v>
+      </c>
+      <c r="B9" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="F9" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="G9" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="I9" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>8</v>
+      </c>
+      <c r="B10" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="C10" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="F10" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="G10" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="H10" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="I10" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>9</v>
+      </c>
+      <c r="B11" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="C11" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="F11" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="G11" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="H11" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="I11" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>10</v>
+      </c>
+      <c r="B12" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="C12" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="F12" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="G12" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="H12" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="I12" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>11</v>
+      </c>
+      <c r="B13" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="C13" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="D13" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="E13" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="F13" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="G13" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="H13" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="I13" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>12</v>
+      </c>
+      <c r="B14" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="C14" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="D14" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>13</v>
+      </c>
+      <c r="B15" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="C15" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="D15" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="F15" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="H15" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="I15" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>14</v>
+      </c>
+      <c r="B16" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="C16" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="D16" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="E16" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="F16" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="G16" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="H16" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="I16" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>15</v>
+      </c>
+      <c r="B17" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="C17" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="D17" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="E17" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="F17" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="G17" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="H17" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="I17" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>16</v>
+      </c>
+      <c r="B18" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="C18" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="D18" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="E18" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="F18" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="G18" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="H18" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="I18" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>17</v>
+      </c>
+      <c r="B19" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="C19" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="D19" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="E19" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="F19" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="G19" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="H19" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="I19" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>18</v>
+      </c>
+      <c r="B20" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="C20" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D20" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="E20" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="F20" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="G20" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="H20" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="I20" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>19</v>
+      </c>
+      <c r="B21" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="C21" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D21" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="E21" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="F21" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="G21" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="H21" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="I21" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>20</v>
+      </c>
+      <c r="B22" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="C22" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="D22" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="F22" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="H22" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="I22" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>21</v>
+      </c>
+      <c r="B23" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="C23" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="D23" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="E23" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="F23" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="G23" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="H23" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="I23" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>22</v>
+      </c>
+      <c r="B24" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="C24" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="D24" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="E24" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="F24" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="G24" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="H24" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="I24" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>23</v>
+      </c>
+      <c r="B25" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="C25" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="D25" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="E25" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="F25" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="G25" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="H25" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="I25" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EFD86E8-72EA-4353-93F0-76A546E1BA86}">
+  <dimension ref="A1:I25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:I25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="C2" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="D2" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="E2" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="F2" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="G2" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="H2" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="I2" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="E3" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="F3" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="G3" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="H3" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="I3" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="F4" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="G4" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="H4" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="I4" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="G5" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="H5" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="I5" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="F6" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="G6" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="H6" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="I6" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>5</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="F7" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="G7" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="H7" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="I7" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>6</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="I8" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>7</v>
+      </c>
+      <c r="B9" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="F9" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="G9" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="I9" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>8</v>
+      </c>
+      <c r="B10" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="C10" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="F10" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="G10" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="H10" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="I10" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>9</v>
+      </c>
+      <c r="B11" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="C11" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="F11" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="G11" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="H11" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="I11" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>10</v>
+      </c>
+      <c r="B12" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="C12" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="F12" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="G12" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="H12" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="I12" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>11</v>
+      </c>
+      <c r="B13" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="C13" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="D13" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="E13" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="F13" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="G13" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="H13" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="I13" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>12</v>
+      </c>
+      <c r="B14" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="C14" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="D14" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>13</v>
+      </c>
+      <c r="B15" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="C15" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="D15" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="F15" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="H15" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="I15" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>14</v>
+      </c>
+      <c r="B16" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="C16" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="D16" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="E16" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="F16" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="G16" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="H16" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="I16" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>15</v>
+      </c>
+      <c r="B17" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="C17" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="D17" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="E17" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="F17" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="G17" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="H17" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="I17" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>16</v>
+      </c>
+      <c r="B18" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="C18" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="D18" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="E18" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="F18" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="G18" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="H18" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="I18" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>17</v>
+      </c>
+      <c r="B19" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="C19" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="D19" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="E19" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="F19" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="G19" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="H19" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="I19" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>18</v>
+      </c>
+      <c r="B20" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="C20" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D20" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="E20" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="F20" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="G20" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="H20" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="I20" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>19</v>
+      </c>
+      <c r="B21" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="C21" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D21" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="E21" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="F21" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="G21" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="H21" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="I21" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>20</v>
+      </c>
+      <c r="B22" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="C22" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="D22" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="F22" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="H22" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="I22" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>21</v>
+      </c>
+      <c r="B23" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="C23" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="D23" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="E23" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="F23" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="G23" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="H23" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="I23" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>22</v>
+      </c>
+      <c r="B24" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="C24" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="D24" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="E24" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="F24" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="G24" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="H24" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="I24" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>23</v>
+      </c>
+      <c r="B25" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="C25" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="D25" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="E25" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="F25" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="G25" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="H25" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="I25" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C4881C3-340B-4B45-99AD-ECE339CA655F}">
+  <dimension ref="A1:I25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:I25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="C2" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="D2" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="E2" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="F2" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="G2" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="H2" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="I2" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="E3" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="F3" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="G3" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="H3" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="I3" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="F4" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="G4" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="H4" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="I4" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="G5" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="H5" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="I5" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="F6" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="G6" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="H6" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="I6" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>5</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="F7" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="G7" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="H7" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="I7" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>6</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="I8" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>7</v>
+      </c>
+      <c r="B9" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="F9" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="G9" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="I9" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>8</v>
+      </c>
+      <c r="B10" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="C10" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="F10" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="G10" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="H10" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="I10" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>9</v>
+      </c>
+      <c r="B11" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="C11" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="F11" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="G11" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="H11" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="I11" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>10</v>
+      </c>
+      <c r="B12" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="C12" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="F12" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="G12" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="H12" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="I12" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>11</v>
+      </c>
+      <c r="B13" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="C13" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="D13" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="E13" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="F13" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="G13" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="H13" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="I13" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>12</v>
+      </c>
+      <c r="B14" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="C14" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="D14" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>13</v>
+      </c>
+      <c r="B15" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="C15" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="D15" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="F15" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="H15" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="I15" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>14</v>
+      </c>
+      <c r="B16" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="C16" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="D16" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="E16" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="F16" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="G16" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="H16" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="I16" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>15</v>
+      </c>
+      <c r="B17" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="C17" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="D17" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="E17" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="F17" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="G17" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="H17" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="I17" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>16</v>
+      </c>
+      <c r="B18" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="C18" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="D18" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="E18" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="F18" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="G18" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="H18" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="I18" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>17</v>
+      </c>
+      <c r="B19" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="C19" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="D19" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="E19" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="F19" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="G19" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="H19" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="I19" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>18</v>
+      </c>
+      <c r="B20" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="C20" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D20" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="E20" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="F20" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="G20" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="H20" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="I20" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>19</v>
+      </c>
+      <c r="B21" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="C21" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D21" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="E21" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="F21" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="G21" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="H21" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="I21" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>20</v>
+      </c>
+      <c r="B22" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="C22" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="D22" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="F22" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="H22" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="I22" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>21</v>
+      </c>
+      <c r="B23" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="C23" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="D23" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="E23" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="F23" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="G23" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="H23" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="I23" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>22</v>
+      </c>
+      <c r="B24" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="C24" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="D24" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="E24" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="F24" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="G24" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="H24" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="I24" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>23</v>
+      </c>
+      <c r="B25" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="C25" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="D25" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="E25" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="F25" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="G25" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="H25" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="I25" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A834683-A25B-40D6-9D5E-CCDEA83103D1}">
+  <dimension ref="A1:I25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:I25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="C2" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="D2" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="E2" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="F2" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="G2" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="H2" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="I2" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="E3" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="F3" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="G3" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="H3" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="I3" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="F4" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="G4" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="H4" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="I4" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="G5" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="H5" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="I5" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="F6" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="G6" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="H6" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="I6" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>5</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="F7" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="G7" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="H7" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="I7" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>6</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="I8" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>7</v>
+      </c>
+      <c r="B9" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="F9" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="G9" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="I9" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>8</v>
+      </c>
+      <c r="B10" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="C10" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="F10" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="G10" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="H10" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="I10" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>9</v>
+      </c>
+      <c r="B11" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="C11" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="F11" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="G11" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="H11" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="I11" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>10</v>
+      </c>
+      <c r="B12" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="C12" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="F12" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="G12" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="H12" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="I12" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>11</v>
+      </c>
+      <c r="B13" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="C13" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="D13" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="E13" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="F13" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="G13" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="H13" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="I13" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>12</v>
+      </c>
+      <c r="B14" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="C14" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="D14" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>13</v>
+      </c>
+      <c r="B15" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="C15" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="D15" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="F15" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="H15" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="I15" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>14</v>
+      </c>
+      <c r="B16" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="C16" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="D16" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="E16" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="F16" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="G16" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="H16" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="I16" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>15</v>
+      </c>
+      <c r="B17" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="C17" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="D17" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="E17" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="F17" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="G17" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="H17" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="I17" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>16</v>
+      </c>
+      <c r="B18" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="C18" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="D18" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="E18" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="F18" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="G18" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="H18" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="I18" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>17</v>
+      </c>
+      <c r="B19" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="C19" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="D19" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="E19" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="F19" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="G19" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="H19" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="I19" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>18</v>
+      </c>
+      <c r="B20" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="C20" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D20" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="E20" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="F20" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="G20" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="H20" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="I20" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>19</v>
+      </c>
+      <c r="B21" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="C21" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D21" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="E21" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="F21" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="G21" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="H21" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="I21" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>20</v>
+      </c>
+      <c r="B22" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="C22" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="D22" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="F22" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="H22" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="I22" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>21</v>
+      </c>
+      <c r="B23" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="C23" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="D23" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="E23" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="F23" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="G23" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="H23" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="I23" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>22</v>
+      </c>
+      <c r="B24" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="C24" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="D24" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="E24" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="F24" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="G24" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="H24" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="I24" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>23</v>
+      </c>
+      <c r="B25" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="C25" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="D25" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="E25" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="F25" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="G25" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="H25" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="I25" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CF952EA-7BD2-4186-AF5F-205AEF31D6C0}">
+  <dimension ref="A1:I25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:I25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="C2" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="D2" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="E2" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="F2" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="G2" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="H2" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="I2" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="E3" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="F3" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="G3" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="H3" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="I3" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="F4" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="G4" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="H4" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="I4" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="G5" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="H5" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="I5" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="F6" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="G6" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="H6" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="I6" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>5</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="F7" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="G7" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="H7" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="I7" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>6</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="I8" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>7</v>
+      </c>
+      <c r="B9" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="F9" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="G9" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="I9" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>8</v>
+      </c>
+      <c r="B10" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="C10" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="F10" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="G10" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="H10" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="I10" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>9</v>
+      </c>
+      <c r="B11" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="C11" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="F11" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="G11" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="H11" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="I11" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>10</v>
+      </c>
+      <c r="B12" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="C12" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="F12" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="G12" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="H12" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="I12" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>11</v>
+      </c>
+      <c r="B13" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="C13" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="D13" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="E13" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="F13" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="G13" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="H13" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="I13" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>12</v>
+      </c>
+      <c r="B14" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="C14" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="D14" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>13</v>
+      </c>
+      <c r="B15" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="C15" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="D15" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="F15" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="H15" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="I15" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>14</v>
+      </c>
+      <c r="B16" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="C16" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="D16" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="E16" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="F16" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="G16" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="H16" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="I16" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>15</v>
+      </c>
+      <c r="B17" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="C17" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="D17" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="E17" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="F17" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="G17" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="H17" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="I17" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>16</v>
+      </c>
+      <c r="B18" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="C18" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="D18" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="E18" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="F18" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="G18" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="H18" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="I18" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>17</v>
+      </c>
+      <c r="B19" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="C19" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="D19" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="E19" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="F19" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="G19" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="H19" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="I19" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>18</v>
+      </c>
+      <c r="B20" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="C20" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D20" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="E20" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="F20" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="G20" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="H20" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="I20" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>19</v>
+      </c>
+      <c r="B21" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="C21" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D21" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="E21" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="F21" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="G21" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="H21" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="I21" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>20</v>
+      </c>
+      <c r="B22" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="C22" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="D22" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="F22" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="H22" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="I22" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>21</v>
+      </c>
+      <c r="B23" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="C23" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="D23" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="E23" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="F23" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="G23" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="H23" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="I23" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>22</v>
+      </c>
+      <c r="B24" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="C24" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="D24" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="E24" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="F24" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="G24" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="H24" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="I24" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>23</v>
+      </c>
+      <c r="B25" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="C25" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="D25" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="E25" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="F25" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="G25" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="H25" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="I25" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FD7559F-F505-447F-8C19-02D49EDFA1BC}">
+  <dimension ref="A1:I25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:I25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="C2" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="D2" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="E2" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="F2" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="G2" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="H2" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="I2" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="E3" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="F3" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="G3" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="H3" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="I3" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="F4" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="G4" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="H4" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="I4" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="G5" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="H5" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="I5" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="F6" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="G6" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="H6" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="I6" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>5</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="F7" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="G7" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="H7" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="I7" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>6</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="I8" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>7</v>
+      </c>
+      <c r="B9" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="F9" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="G9" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="I9" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>8</v>
+      </c>
+      <c r="B10" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="C10" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="F10" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="G10" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="H10" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="I10" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>9</v>
+      </c>
+      <c r="B11" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="C11" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="F11" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="G11" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="H11" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="I11" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>10</v>
+      </c>
+      <c r="B12" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="C12" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="F12" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="G12" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="H12" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="I12" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>11</v>
+      </c>
+      <c r="B13" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="C13" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="D13" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="E13" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="F13" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="G13" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="H13" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="I13" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>12</v>
+      </c>
+      <c r="B14" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="C14" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="D14" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>13</v>
+      </c>
+      <c r="B15" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="C15" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="D15" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="F15" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="H15" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="I15" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>14</v>
+      </c>
+      <c r="B16" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="C16" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="D16" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="E16" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="F16" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="G16" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="H16" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="I16" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>15</v>
+      </c>
+      <c r="B17" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="C17" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="D17" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="E17" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="F17" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="G17" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="H17" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="I17" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>16</v>
+      </c>
+      <c r="B18" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="C18" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="D18" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="E18" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="F18" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="G18" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="H18" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="I18" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>17</v>
+      </c>
+      <c r="B19" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="C19" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="D19" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="E19" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="F19" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="G19" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="H19" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="I19" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>18</v>
+      </c>
+      <c r="B20" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="C20" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D20" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="E20" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="F20" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="G20" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="H20" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="I20" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>19</v>
+      </c>
+      <c r="B21" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="C21" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D21" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="E21" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="F21" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="G21" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="H21" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="I21" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>20</v>
+      </c>
+      <c r="B22" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="C22" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="D22" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="F22" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="H22" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="I22" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>21</v>
+      </c>
+      <c r="B23" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="C23" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="D23" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="E23" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="F23" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="G23" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="H23" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="I23" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>22</v>
+      </c>
+      <c r="B24" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="C24" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="D24" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="E24" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="F24" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="G24" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="H24" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="I24" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>23</v>
+      </c>
+      <c r="B25" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="C25" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="D25" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="E25" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="F25" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="G25" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="H25" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="I25" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B42EF085-D480-4ECB-AE7A-00AEA4A8B968}">
+  <dimension ref="A1:I25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:I25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="C2" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="D2" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="E2" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="F2" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="G2" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="H2" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="I2" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="E3" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="F3" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="G3" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="H3" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="I3" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="F4" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="G4" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="H4" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="I4" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="G5" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="H5" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="I5" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="F6" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="G6" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="H6" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="I6" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>5</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="F7" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="G7" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="H7" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="I7" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>6</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="I8" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>7</v>
+      </c>
+      <c r="B9" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="F9" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="G9" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="I9" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>8</v>
+      </c>
+      <c r="B10" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="C10" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="F10" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="G10" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="H10" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="I10" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>9</v>
+      </c>
+      <c r="B11" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="C11" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="F11" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="G11" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="H11" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="I11" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>10</v>
+      </c>
+      <c r="B12" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="C12" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="F12" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="G12" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="H12" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="I12" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>11</v>
+      </c>
+      <c r="B13" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="C13" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="D13" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="E13" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="F13" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="G13" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="H13" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="I13" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>12</v>
+      </c>
+      <c r="B14" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="C14" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="D14" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>13</v>
+      </c>
+      <c r="B15" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="C15" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="D15" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="F15" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="H15" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="I15" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>14</v>
+      </c>
+      <c r="B16" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="C16" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="D16" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="E16" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="F16" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="G16" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="H16" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="I16" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>15</v>
+      </c>
+      <c r="B17" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="C17" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="D17" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="E17" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="F17" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="G17" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="H17" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="I17" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>16</v>
+      </c>
+      <c r="B18" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="C18" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="D18" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="E18" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="F18" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="G18" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="H18" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="I18" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>17</v>
+      </c>
+      <c r="B19" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="C19" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="D19" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="E19" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="F19" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="G19" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="H19" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="I19" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>18</v>
+      </c>
+      <c r="B20" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="C20" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D20" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="E20" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="F20" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="G20" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="H20" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="I20" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>19</v>
+      </c>
+      <c r="B21" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="C21" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D21" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="E21" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="F21" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="G21" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="H21" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="I21" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>20</v>
+      </c>
+      <c r="B22" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="C22" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="D22" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="F22" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="H22" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="I22" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>21</v>
+      </c>
+      <c r="B23" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="C23" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="D23" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="E23" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="F23" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="G23" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="H23" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="I23" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>22</v>
+      </c>
+      <c r="B24" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="C24" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="D24" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="E24" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="F24" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="G24" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="H24" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="I24" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>23</v>
+      </c>
+      <c r="B25" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="C25" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="D25" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="E25" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="F25" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="G25" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="H25" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="I25" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>